--- a/data/cepea-consulta-açucar-cristal.reparado.xlsx
+++ b/data/cepea-consulta-açucar-cristal.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829F2349-E300-4EE2-B923-F973DFE68A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0FE565A-0083-41E7-B177-34363239F1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1132">
   <si>
     <t>Açúcar | INDICADOR DO AÇÚCAR CRISTAL BRANCO CEPEA/ESALQ - SÃO PAULO</t>
   </si>
@@ -3382,6 +3382,51 @@
   </si>
   <si>
     <t>118,60</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>118,44</t>
+  </si>
+  <si>
+    <t>21,85</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>118,84</t>
+  </si>
+  <si>
+    <t>21,82</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>118,99</t>
+  </si>
+  <si>
+    <t>21,73</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>117,81</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>117,33</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>22,10</t>
   </si>
 </sst>
 </file>
@@ -3833,10 +3878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420:C420"/>
+      <selection activeCell="A426" sqref="A426:C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8477,6 +8522,72 @@
       </c>
       <c r="C420" s="3" t="s">
         <v>1103</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-açucar-cristal.reparado.xlsx
+++ b/data/cepea-consulta-açucar-cristal.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FCF7FD2-1DD4-454C-9A9C-65D8EA6580B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFA1D4B-614C-487A-8BFD-6F27626A2C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1156">
   <si>
     <t>Açúcar | INDICADOR DO AÇÚCAR CRISTAL BRANCO CEPEA/ESALQ - SÃO PAULO</t>
   </si>
@@ -3463,6 +3463,42 @@
   </si>
   <si>
     <t>117,23</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>117,77</t>
+  </si>
+  <si>
+    <t>22,15</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>117,99</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>119,37</t>
+  </si>
+  <si>
+    <t>22,53</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>22,47</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>22,64</t>
   </si>
 </sst>
 </file>
@@ -3914,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:C431"/>
+      <selection activeCell="A436" sqref="A436:C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8679,6 +8715,61 @@
       </c>
       <c r="C431" s="3" t="s">
         <v>988</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1155</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-açucar-cristal.reparado.xlsx
+++ b/data/cepea-consulta-açucar-cristal.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFA1D4B-614C-487A-8BFD-6F27626A2C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DA518D-5350-483A-9006-949CEADCBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>

--- a/data/cepea-consulta-açucar-cristal.reparado.xlsx
+++ b/data/cepea-consulta-açucar-cristal.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DA518D-5350-483A-9006-949CEADCBC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A40558-FCC7-46A5-A03C-5EC7DC4262A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
